--- a/APF/QA/RA006/QAP001_APF_RA006_APF0001_登入主畫面與框架顯示.xlsx
+++ b/APF/QA/RA006/QAP001_APF_RA006_APF0001_登入主畫面與框架顯示.xlsx
@@ -5,11 +5,11 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PIC2013\QA\速達3G\9.3 文件檢視記錄統計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a8907010\Documents\suda3g\9. 品質管理\9.3 文件檢視記錄統計\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1401" yWindow="223" windowWidth="10918" windowHeight="5655" tabRatio="549" activeTab="2"/>
+    <workbookView xWindow="1395" yWindow="225" windowWidth="10920" windowHeight="5655" tabRatio="549" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="修訂履歷" sheetId="5" r:id="rId1"/>
@@ -155,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="468">
   <si>
     <t>檢視面向</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -2669,9 +2669,6 @@
     <t>SD PM</t>
   </si>
   <si>
-    <t>SD PM-3</t>
-  </si>
-  <si>
     <t>訊息表加入訊息的類別代碼，方便日後調整</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -2726,9 +2723,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>SA PM-5</t>
-  </si>
-  <si>
     <t>17</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -2765,6 +2759,19 @@
   </si>
   <si>
     <t>考慮不足</t>
+  </si>
+  <si>
+    <t>SA PM-3</t>
+  </si>
+  <si>
+    <t>SD PM-5</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>鈺杰</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4624,7 +4631,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="6.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.25" style="17" customWidth="1"/>
@@ -4651,7 +4658,7 @@
       <c r="E2" s="147"/>
       <c r="F2" s="147"/>
     </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" ht="16.399999999999999">
+    <row r="3" spans="1:6" s="6" customFormat="1" ht="16.5">
       <c r="B3" s="7" t="s">
         <v>53</v>
       </c>
@@ -4662,7 +4669,7 @@
       <c r="E3" s="147"/>
       <c r="F3" s="147"/>
     </row>
-    <row r="4" spans="1:6" s="6" customFormat="1" ht="16.399999999999999">
+    <row r="4" spans="1:6" s="6" customFormat="1" ht="16.5">
       <c r="B4" s="7" t="s">
         <v>54</v>
       </c>
@@ -4673,7 +4680,7 @@
       <c r="E4" s="147"/>
       <c r="F4" s="147"/>
     </row>
-    <row r="5" spans="1:6" s="6" customFormat="1" ht="16.399999999999999">
+    <row r="5" spans="1:6" s="6" customFormat="1" ht="16.5">
       <c r="B5" s="7" t="s">
         <v>55</v>
       </c>
@@ -4684,7 +4691,7 @@
       <c r="E5" s="149"/>
       <c r="F5" s="149"/>
     </row>
-    <row r="6" spans="1:6" s="8" customFormat="1" ht="16.399999999999999">
+    <row r="6" spans="1:6" s="8" customFormat="1" ht="16.5">
       <c r="A6" s="143" t="s">
         <v>56</v>
       </c>
@@ -4694,7 +4701,7 @@
       <c r="E6" s="144"/>
       <c r="F6" s="145"/>
     </row>
-    <row r="7" spans="1:6" s="8" customFormat="1" ht="16.399999999999999">
+    <row r="7" spans="1:6" s="8" customFormat="1" ht="16.5">
       <c r="A7" s="9" t="s">
         <v>57</v>
       </c>
@@ -4714,7 +4721,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.399999999999999">
+    <row r="8" spans="1:6" ht="16.5">
       <c r="A8" s="11" t="s">
         <v>1</v>
       </c>
@@ -4885,10 +4892,10 @@
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11:L11"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11:L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="14.125" style="77" customWidth="1"/>
     <col min="2" max="2" width="14.75" style="49" customWidth="1"/>
@@ -4909,7 +4916,7 @@
     <col min="23" max="16384" width="9" style="80"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="1" spans="1:20" s="54" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="49"/>
       <c r="B1" s="50" t="s">
         <v>35</v>
@@ -4931,7 +4938,7 @@
       <c r="Q1" s="49"/>
       <c r="R1" s="49"/>
     </row>
-    <row r="2" spans="1:20" s="59" customFormat="1" ht="20.3" customHeight="1">
+    <row r="2" spans="1:20" s="59" customFormat="1" ht="20.25" customHeight="1">
       <c r="A2" s="55"/>
       <c r="B2" s="50" t="s">
         <v>36</v>
@@ -4953,7 +4960,7 @@
       <c r="Q2" s="55"/>
       <c r="R2" s="55"/>
     </row>
-    <row r="3" spans="1:20" s="59" customFormat="1" ht="20.3" customHeight="1">
+    <row r="3" spans="1:20" s="59" customFormat="1" ht="20.25" customHeight="1">
       <c r="A3" s="55"/>
       <c r="B3" s="50" t="s">
         <v>37</v>
@@ -4975,7 +4982,7 @@
       <c r="Q3" s="55"/>
       <c r="R3" s="55"/>
     </row>
-    <row r="4" spans="1:20" s="102" customFormat="1" ht="33.049999999999997" customHeight="1">
+    <row r="4" spans="1:20" s="102" customFormat="1" ht="33" customHeight="1">
       <c r="A4" s="62"/>
       <c r="B4" s="50" t="s">
         <v>282</v>
@@ -5007,22 +5014,22 @@
       <c r="O4" s="62"/>
       <c r="P4" s="58"/>
     </row>
-    <row r="5" spans="1:20" s="102" customFormat="1" ht="20.3" customHeight="1">
+    <row r="5" spans="1:20" s="102" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="62"/>
       <c r="B5" s="50" t="s">
         <v>282</v>
       </c>
       <c r="C5" s="99">
         <f>COUNTIF($C$7:$C$27,"&gt;""")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="108">
         <f>SUM($M$7:$M$27)</f>
-        <v>29.499999999999993</v>
+        <v>33.5</v>
       </c>
       <c r="E5" s="99">
         <f>SUM($J$7:$J$27)</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F5" s="109">
         <f ca="1">SUM($N$7:$N$27)</f>
@@ -5030,11 +5037,11 @@
       </c>
       <c r="G5" s="109">
         <f ca="1">SUM($O$7:$O$27)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H5" s="110">
         <f ca="1">F5-G5</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" s="53"/>
       <c r="J5" s="58"/>
@@ -5045,7 +5052,7 @@
       <c r="O5" s="62"/>
       <c r="P5" s="58"/>
     </row>
-    <row r="6" spans="1:20" s="58" customFormat="1" ht="49.1">
+    <row r="6" spans="1:20" s="58" customFormat="1" ht="33">
       <c r="A6" s="103" t="s">
         <v>38</v>
       </c>
@@ -5103,7 +5110,7 @@
       <c r="S6" s="107"/>
       <c r="T6" s="107"/>
     </row>
-    <row r="7" spans="1:20" s="55" customFormat="1" ht="49.1">
+    <row r="7" spans="1:20" s="55" customFormat="1" ht="49.5">
       <c r="A7" s="64" t="s">
         <v>383</v>
       </c>
@@ -5163,7 +5170,7 @@
       </c>
       <c r="R7" s="72"/>
     </row>
-    <row r="8" spans="1:20" s="55" customFormat="1" ht="32.75">
+    <row r="8" spans="1:20" s="55" customFormat="1" ht="33">
       <c r="A8" s="64" t="s">
         <v>383</v>
       </c>
@@ -5222,9 +5229,9 @@
       </c>
       <c r="R8" s="72"/>
     </row>
-    <row r="9" spans="1:20" s="55" customFormat="1" ht="32.75">
+    <row r="9" spans="1:20" s="55" customFormat="1" ht="16.5">
       <c r="A9" s="64" t="s">
-        <v>439</v>
+        <v>383</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
@@ -5233,35 +5240,35 @@
         <v>379</v>
       </c>
       <c r="D9" s="140" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="E9" s="66">
-        <v>41576</v>
+        <v>41572</v>
       </c>
       <c r="F9" s="140" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="G9" s="66">
-        <v>41576</v>
+        <v>41572</v>
       </c>
       <c r="H9" s="67">
-        <v>0.5625</v>
+        <v>0.6875</v>
       </c>
       <c r="I9" s="67">
-        <v>0.64583333333333337</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="J9" s="65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K9" s="68" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="L9" s="69" t="s">
-        <v>382</v>
+        <v>453</v>
       </c>
       <c r="M9" s="70">
         <f>IF(C9="","",J9*(I9-H9)*24)</f>
-        <v>8.0000000000000036</v>
+        <v>1.0000000000000018</v>
       </c>
       <c r="N9" s="63">
         <f>IF(C9="","",COUNTIF(改善明細!A:A,Q9))</f>
@@ -5273,15 +5280,15 @@
       </c>
       <c r="P9" s="71" t="str">
         <f t="shared" ref="P9" si="2">IF(Q9="","",LEFT(Q9,FIND("-",Q9)-1))</f>
-        <v>SD PM</v>
+        <v>SA PM</v>
       </c>
       <c r="Q9" s="71" t="str">
         <f>IF(OR(A9="",B9=""),"",A9&amp;"-"&amp;B9)</f>
-        <v>SD PM-3</v>
-      </c>
-      <c r="R9" s="72"/>
-    </row>
-    <row r="10" spans="1:20" s="55" customFormat="1" ht="32.75">
+        <v>SA PM-3</v>
+      </c>
+      <c r="R9" s="74"/>
+    </row>
+    <row r="10" spans="1:20" s="55" customFormat="1" ht="16.5">
       <c r="A10" s="64" t="s">
         <v>439</v>
       </c>
@@ -5295,32 +5302,32 @@
         <v>438</v>
       </c>
       <c r="E10" s="66">
-        <v>41577</v>
+        <v>41576</v>
       </c>
       <c r="F10" s="140" t="s">
         <v>436</v>
       </c>
       <c r="G10" s="66">
-        <v>41582</v>
+        <v>41576</v>
       </c>
       <c r="H10" s="67">
-        <v>0.41666666666666669</v>
+        <v>0.5625</v>
       </c>
       <c r="I10" s="67">
-        <v>0.47222222222222227</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="J10" s="65">
         <v>4</v>
       </c>
       <c r="K10" s="68" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="L10" s="69" t="s">
         <v>382</v>
       </c>
       <c r="M10" s="70">
         <f>IF(C10="","",J10*(I10-H10)*24)</f>
-        <v>5.3333333333333357</v>
+        <v>8.0000000000000036</v>
       </c>
       <c r="N10" s="63">
         <f>IF(C10="","",COUNTIF(改善明細!A:A,Q10))</f>
@@ -5328,7 +5335,7 @@
       </c>
       <c r="O10" s="63">
         <f>IF(C10="","",COUNTIFS(改善明細!$A:$A,Q10, 改善明細!$J:$J,"V"))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P10" s="71" t="str">
         <f t="shared" ref="P10" si="3">IF(Q10="","",LEFT(Q10,FIND("-",Q10)-1))</f>
@@ -5338,11 +5345,11 @@
         <f>IF(OR(A10="",B10=""),"",A10&amp;"-"&amp;B10)</f>
         <v>SD PM-4</v>
       </c>
-      <c r="R10" s="74"/>
-    </row>
-    <row r="11" spans="1:20" s="55" customFormat="1" ht="16.399999999999999">
+      <c r="R10" s="72"/>
+    </row>
+    <row r="11" spans="1:20" s="55" customFormat="1" ht="16.5">
       <c r="A11" s="64" t="s">
-        <v>383</v>
+        <v>439</v>
       </c>
       <c r="B11" s="1">
         <v>5</v>
@@ -5351,35 +5358,35 @@
         <v>379</v>
       </c>
       <c r="D11" s="140" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E11" s="66">
-        <v>41572</v>
+        <v>41577</v>
       </c>
       <c r="F11" s="140" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="G11" s="66">
-        <v>41572</v>
+        <v>41577</v>
       </c>
       <c r="H11" s="67">
-        <v>0.6875</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="I11" s="67">
-        <v>0.70833333333333337</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="J11" s="65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K11" s="68" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="L11" s="69" t="s">
-        <v>454</v>
+        <v>382</v>
       </c>
       <c r="M11" s="70">
         <f>IF(C11="","",J11*(I11-H11)*24)</f>
-        <v>1.0000000000000018</v>
+        <v>5.3333333333333357</v>
       </c>
       <c r="N11" s="63">
         <f>IF(C11="","",COUNTIF(改善明細!A:A,Q11))</f>
@@ -5391,53 +5398,74 @@
       </c>
       <c r="P11" s="71" t="str">
         <f t="shared" ref="P11" si="4">IF(Q11="","",LEFT(Q11,FIND("-",Q11)-1))</f>
-        <v>SA PM</v>
+        <v>SD PM</v>
       </c>
       <c r="Q11" s="71" t="str">
         <f>IF(OR(A11="",B11=""),"",A11&amp;"-"&amp;B11)</f>
-        <v>SA PM-5</v>
+        <v>SD PM-5</v>
       </c>
       <c r="R11" s="74"/>
     </row>
-    <row r="12" spans="1:20" s="55" customFormat="1" ht="16.399999999999999">
-      <c r="A12" s="64"/>
-      <c r="B12" s="1" t="str">
-        <f ca="1">IF(A12="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B12,,-1,,),OFFSET(B12,,-1,,)))</f>
-        <v/>
-      </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="70" t="str">
+    <row r="12" spans="1:20" s="55" customFormat="1" ht="16.5">
+      <c r="A12" s="64" t="s">
+        <v>439</v>
+      </c>
+      <c r="B12" s="1">
+        <v>6</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>466</v>
+      </c>
+      <c r="D12" s="140" t="s">
+        <v>438</v>
+      </c>
+      <c r="E12" s="66">
+        <v>41582</v>
+      </c>
+      <c r="F12" s="140" t="s">
+        <v>434</v>
+      </c>
+      <c r="G12" s="66">
+        <v>41582</v>
+      </c>
+      <c r="H12" s="67">
+        <v>0.4375</v>
+      </c>
+      <c r="I12" s="67">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="J12" s="65">
+        <v>4</v>
+      </c>
+      <c r="K12" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="L12" s="69" t="s">
+        <v>467</v>
+      </c>
+      <c r="M12" s="70">
         <f t="shared" ref="M12:M20" si="5">IF(C12="","",J12*(I12-H12)*24)</f>
-        <v/>
-      </c>
-      <c r="N12" s="63" t="str">
+        <v>4.0000000000000018</v>
+      </c>
+      <c r="N12" s="63">
         <f>IF(C12="","",COUNTIF(改善明細!A:A,Q12))</f>
-        <v/>
-      </c>
-      <c r="O12" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="O12" s="63">
         <f>IF(C12="","",COUNTIFS(改善明細!$A:$A,Q12, 改善明細!$J:$J,"V"))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P12" s="71" t="str">
-        <f t="shared" ref="P12:P20" ca="1" si="6">IF(Q12="","",LEFT(Q12,FIND("-",Q12)-1))</f>
-        <v/>
+        <f t="shared" ref="P12:P20" si="6">IF(Q12="","",LEFT(Q12,FIND("-",Q12)-1))</f>
+        <v>SD PM</v>
       </c>
       <c r="Q12" s="71" t="str">
-        <f t="shared" ref="Q12:Q20" ca="1" si="7">IF(OR(A12="",B12=""),"",A12&amp;"-"&amp;B12)</f>
-        <v/>
+        <f t="shared" ref="Q12:Q20" si="7">IF(OR(A12="",B12=""),"",A12&amp;"-"&amp;B12)</f>
+        <v>SD PM-6</v>
       </c>
       <c r="R12" s="74"/>
     </row>
-    <row r="13" spans="1:20" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="13" spans="1:20" s="55" customFormat="1" ht="16.5">
       <c r="A13" s="64"/>
       <c r="B13" s="1" t="str">
         <f ca="1">IF(A13="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B13,,-1,,),OFFSET(B13,,-1,,)))</f>
@@ -5475,7 +5503,7 @@
       </c>
       <c r="R13" s="74"/>
     </row>
-    <row r="14" spans="1:20" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="14" spans="1:20" s="55" customFormat="1" ht="16.5">
       <c r="A14" s="64"/>
       <c r="B14" s="1" t="str">
         <f ca="1">IF(A14="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B14,,-1,,),OFFSET(B14,,-1,,)))</f>
@@ -5513,7 +5541,7 @@
       </c>
       <c r="R14" s="74"/>
     </row>
-    <row r="15" spans="1:20" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="15" spans="1:20" s="55" customFormat="1" ht="16.5">
       <c r="A15" s="64"/>
       <c r="B15" s="1" t="str">
         <f ca="1">IF(A15="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B15,,-1,,),OFFSET(B15,,-1,,)))</f>
@@ -5551,7 +5579,7 @@
       </c>
       <c r="R15" s="74"/>
     </row>
-    <row r="16" spans="1:20" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="16" spans="1:20" s="55" customFormat="1" ht="16.5">
       <c r="A16" s="64"/>
       <c r="B16" s="1" t="str">
         <f ca="1">IF(A16="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B16,,-1,,),OFFSET(B16,,-1,,)))</f>
@@ -5589,7 +5617,7 @@
       </c>
       <c r="R16" s="74"/>
     </row>
-    <row r="17" spans="1:18" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="17" spans="1:18" s="55" customFormat="1" ht="16.5">
       <c r="A17" s="64"/>
       <c r="B17" s="1" t="str">
         <f ca="1">IF(A17="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B17,,-1,,),OFFSET(B17,,-1,,)))</f>
@@ -5627,7 +5655,7 @@
       </c>
       <c r="R17" s="74"/>
     </row>
-    <row r="18" spans="1:18" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="18" spans="1:18" s="55" customFormat="1" ht="16.5">
       <c r="A18" s="64"/>
       <c r="B18" s="1" t="str">
         <f ca="1">IF(A18="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B18,,-1,,),OFFSET(B18,,-1,,)))</f>
@@ -5665,7 +5693,7 @@
       </c>
       <c r="R18" s="74"/>
     </row>
-    <row r="19" spans="1:18" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="19" spans="1:18" s="55" customFormat="1" ht="16.5">
       <c r="A19" s="64"/>
       <c r="B19" s="1" t="str">
         <f ca="1">IF(A19="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B19,,-1,,),OFFSET(B19,,-1,,)))</f>
@@ -5703,7 +5731,7 @@
       </c>
       <c r="R19" s="74"/>
     </row>
-    <row r="20" spans="1:18" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="20" spans="1:18" s="55" customFormat="1" ht="16.5">
       <c r="A20" s="64"/>
       <c r="B20" s="1" t="str">
         <f ca="1">IF(A20="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B20,,-1,,),OFFSET(B20,,-1,,)))</f>
@@ -5741,7 +5769,7 @@
       </c>
       <c r="R20" s="74"/>
     </row>
-    <row r="21" spans="1:18" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="21" spans="1:18" s="55" customFormat="1" ht="16.5">
       <c r="A21" s="64"/>
       <c r="B21" s="1" t="str">
         <f ca="1">IF(A21="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B21,,-1,,),OFFSET(B21,,-1,,)))</f>
@@ -6277,13 +6305,13 @@
   <dimension ref="A1:R117"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="H12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="H14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L8" sqref="L8:L21"/>
+      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="31.1" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="31.15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.625" style="93" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="93" customWidth="1"/>
@@ -6304,7 +6332,7 @@
     <col min="19" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="1" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A1" s="84" t="s">
         <v>10</v>
       </c>
@@ -6329,7 +6357,7 @@
       <c r="Q1" s="22"/>
       <c r="R1" s="22"/>
     </row>
-    <row r="2" spans="1:18" s="22" customFormat="1" ht="57.8" customHeight="1">
+    <row r="2" spans="1:18" s="22" customFormat="1" ht="57.75" customHeight="1">
       <c r="A2" s="37" t="s">
         <v>262</v>
       </c>
@@ -6373,7 +6401,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="23" customFormat="1" ht="32.75">
+    <row r="3" spans="1:18" s="23" customFormat="1" ht="33">
       <c r="A3" s="40" t="s">
         <v>384</v>
       </c>
@@ -6390,7 +6418,7 @@
         <v>388</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G3" s="141" t="s">
         <v>406</v>
@@ -6418,7 +6446,7 @@
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
     </row>
-    <row r="4" spans="1:18" s="23" customFormat="1" ht="16.399999999999999">
+    <row r="4" spans="1:18" s="23" customFormat="1" ht="16.5">
       <c r="A4" s="40" t="s">
         <v>384</v>
       </c>
@@ -6435,7 +6463,7 @@
         <v>388</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G4" s="46" t="s">
         <v>389</v>
@@ -6463,7 +6491,7 @@
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
     </row>
-    <row r="5" spans="1:18" s="23" customFormat="1" ht="16.399999999999999">
+    <row r="5" spans="1:18" s="23" customFormat="1" ht="16.5">
       <c r="A5" s="40" t="s">
         <v>384</v>
       </c>
@@ -6480,7 +6508,7 @@
         <v>388</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G5" s="44" t="s">
         <v>389</v>
@@ -6508,7 +6536,7 @@
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
     </row>
-    <row r="6" spans="1:18" s="23" customFormat="1" ht="32.75">
+    <row r="6" spans="1:18" s="23" customFormat="1" ht="33">
       <c r="A6" s="40" t="s">
         <v>384</v>
       </c>
@@ -6525,7 +6553,7 @@
         <v>388</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G6" s="141" t="s">
         <v>389</v>
@@ -6553,7 +6581,7 @@
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
     </row>
-    <row r="7" spans="1:18" s="23" customFormat="1" ht="49.1">
+    <row r="7" spans="1:18" s="23" customFormat="1" ht="33">
       <c r="A7" s="40" t="s">
         <v>384</v>
       </c>
@@ -6570,7 +6598,7 @@
         <v>388</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G7" s="142" t="s">
         <v>407</v>
@@ -6598,7 +6626,7 @@
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
     </row>
-    <row r="8" spans="1:18" s="23" customFormat="1" ht="32.75">
+    <row r="8" spans="1:18" s="23" customFormat="1" ht="33">
       <c r="A8" s="40" t="s">
         <v>384</v>
       </c>
@@ -6615,7 +6643,7 @@
         <v>388</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G8" s="142" t="s">
         <v>389</v>
@@ -6643,7 +6671,7 @@
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
     </row>
-    <row r="9" spans="1:18" s="23" customFormat="1" ht="16.399999999999999">
+    <row r="9" spans="1:18" s="23" customFormat="1" ht="16.5">
       <c r="A9" s="40" t="s">
         <v>432</v>
       </c>
@@ -6657,13 +6685,13 @@
         <v>409</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H9" s="91">
         <v>41570</v>
@@ -6688,7 +6716,7 @@
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
     </row>
-    <row r="10" spans="1:18" s="23" customFormat="1" ht="16.399999999999999">
+    <row r="10" spans="1:18" s="23" customFormat="1" ht="16.5">
       <c r="A10" s="40" t="s">
         <v>432</v>
       </c>
@@ -6702,13 +6730,13 @@
         <v>411</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F10" s="46" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H10" s="91">
         <v>41570</v>
@@ -6747,13 +6775,13 @@
         <v>411</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F11" s="46" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G11" s="46" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H11" s="91">
         <v>41570</v>
@@ -6778,7 +6806,7 @@
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
     </row>
-    <row r="12" spans="1:18" s="23" customFormat="1" ht="16.399999999999999">
+    <row r="12" spans="1:18" s="23" customFormat="1" ht="16.5">
       <c r="A12" s="40" t="s">
         <v>432</v>
       </c>
@@ -6792,10 +6820,10 @@
         <v>411</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G12" s="46" t="s">
         <v>407</v>
@@ -6823,9 +6851,9 @@
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
     </row>
-    <row r="13" spans="1:18" s="23" customFormat="1" ht="32.75">
+    <row r="13" spans="1:18" s="23" customFormat="1" ht="16.5">
       <c r="A13" s="40" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B13" s="41" t="s">
         <v>427</v>
@@ -6837,10 +6865,10 @@
         <v>415</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G13" s="46" t="s">
         <v>407</v>
@@ -6868,9 +6896,9 @@
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
     </row>
-    <row r="14" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="14" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A14" s="40" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B14" s="41" t="s">
         <v>428</v>
@@ -6882,13 +6910,13 @@
         <v>411</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H14" s="91">
         <v>41578</v>
@@ -6913,9 +6941,9 @@
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
     </row>
-    <row r="15" spans="1:18" s="23" customFormat="1" ht="32.75">
+    <row r="15" spans="1:18" s="23" customFormat="1" ht="16.5">
       <c r="A15" s="40" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B15" s="41" t="s">
         <v>429</v>
@@ -6927,10 +6955,10 @@
         <v>418</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G15" s="44" t="s">
         <v>407</v>
@@ -6958,9 +6986,9 @@
       <c r="O15" s="22"/>
       <c r="P15" s="22"/>
     </row>
-    <row r="16" spans="1:18" s="23" customFormat="1" ht="16.399999999999999">
+    <row r="16" spans="1:18" s="23" customFormat="1" ht="16.5">
       <c r="A16" s="40" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="B16" s="41" t="s">
         <v>430</v>
@@ -6972,25 +7000,27 @@
         <v>420</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G16" s="44" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H16" s="91">
         <v>41584</v>
       </c>
-      <c r="I16" s="91"/>
+      <c r="I16" s="91">
+        <v>41584</v>
+      </c>
       <c r="J16" s="89" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>V</v>
       </c>
       <c r="K16" s="89" t="str">
         <f t="shared" si="4"/>
-        <v>V</v>
+        <v/>
       </c>
       <c r="L16" s="90" t="str">
         <f t="shared" si="2"/>
@@ -7001,9 +7031,9 @@
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
     </row>
-    <row r="17" spans="1:16" s="23" customFormat="1" ht="32.75">
+    <row r="17" spans="1:16" s="23" customFormat="1" ht="16.5">
       <c r="A17" s="40" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="B17" s="41" t="s">
         <v>431</v>
@@ -7015,25 +7045,27 @@
         <v>422</v>
       </c>
       <c r="E17" s="45" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G17" s="44" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H17" s="91">
         <v>41584</v>
       </c>
-      <c r="I17" s="91"/>
+      <c r="I17" s="91">
+        <v>41584</v>
+      </c>
       <c r="J17" s="89" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>V</v>
       </c>
       <c r="K17" s="89" t="str">
         <f t="shared" si="4"/>
-        <v>V</v>
+        <v/>
       </c>
       <c r="L17" s="90" t="str">
         <f t="shared" si="2"/>
@@ -7044,39 +7076,41 @@
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
     </row>
-    <row r="18" spans="1:16" s="23" customFormat="1" ht="16.399999999999999">
+    <row r="18" spans="1:16" s="23" customFormat="1" ht="16.5">
       <c r="A18" s="40" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C18" s="42" t="s">
+        <v>440</v>
+      </c>
+      <c r="D18" s="43" t="s">
         <v>441</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="E18" s="45" t="s">
         <v>442</v>
       </c>
-      <c r="E18" s="45" t="s">
-        <v>443</v>
-      </c>
       <c r="F18" s="46" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H18" s="91">
         <v>41584</v>
       </c>
-      <c r="I18" s="91"/>
+      <c r="I18" s="91">
+        <v>41584</v>
+      </c>
       <c r="J18" s="89" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>V</v>
       </c>
       <c r="K18" s="89" t="str">
         <f t="shared" si="4"/>
-        <v>V</v>
+        <v/>
       </c>
       <c r="L18" s="90" t="str">
         <f t="shared" si="2"/>
@@ -7087,27 +7121,27 @@
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>
     </row>
-    <row r="19" spans="1:16" s="23" customFormat="1" ht="32.75">
+    <row r="19" spans="1:16" s="23" customFormat="1" ht="16.5">
       <c r="A19" s="40" t="s">
+        <v>464</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>454</v>
+      </c>
+      <c r="C19" s="42" t="s">
         <v>455</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="D19" s="43" t="s">
         <v>456</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="E19" s="45" t="s">
         <v>457</v>
       </c>
-      <c r="D19" s="43" t="s">
-        <v>458</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>459</v>
-      </c>
       <c r="F19" s="46" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G19" s="44" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H19" s="91">
         <v>41575</v>
@@ -7132,27 +7166,27 @@
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
     </row>
-    <row r="20" spans="1:16" s="23" customFormat="1" ht="32.75">
+    <row r="20" spans="1:16" s="23" customFormat="1" ht="33">
       <c r="A20" s="40" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E20" s="45" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F20" s="46" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H20" s="91">
         <v>41575</v>
@@ -7177,27 +7211,27 @@
       <c r="O20" s="22"/>
       <c r="P20" s="22"/>
     </row>
-    <row r="21" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="21" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A21" s="40" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="B21" s="41" t="s">
+        <v>460</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>461</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>456</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>457</v>
+      </c>
+      <c r="F21" s="46" t="s">
         <v>462</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="G21" s="46" t="s">
         <v>463</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>458</v>
-      </c>
-      <c r="E21" s="45" t="s">
-        <v>459</v>
-      </c>
-      <c r="F21" s="46" t="s">
-        <v>464</v>
-      </c>
-      <c r="G21" s="46" t="s">
-        <v>465</v>
       </c>
       <c r="H21" s="91">
         <v>41575</v>
@@ -7222,7 +7256,7 @@
       <c r="O21" s="22"/>
       <c r="P21" s="22"/>
     </row>
-    <row r="22" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="22" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A22" s="40"/>
       <c r="B22" s="41"/>
       <c r="C22" s="48"/>
@@ -7246,7 +7280,7 @@
       <c r="O22" s="22"/>
       <c r="P22" s="22"/>
     </row>
-    <row r="23" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="23" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A23" s="40"/>
       <c r="B23" s="41"/>
       <c r="C23" s="48"/>
@@ -7270,7 +7304,7 @@
       <c r="O23" s="22"/>
       <c r="P23" s="22"/>
     </row>
-    <row r="24" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="24" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A24" s="40"/>
       <c r="B24" s="41"/>
       <c r="C24" s="48"/>
@@ -7294,7 +7328,7 @@
       <c r="O24" s="22"/>
       <c r="P24" s="22"/>
     </row>
-    <row r="25" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="25" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A25" s="40"/>
       <c r="B25" s="41"/>
       <c r="C25" s="48"/>
@@ -7318,7 +7352,7 @@
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
     </row>
-    <row r="26" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="26" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A26" s="40"/>
       <c r="B26" s="41"/>
       <c r="C26" s="48"/>
@@ -7342,7 +7376,7 @@
       <c r="O26" s="22"/>
       <c r="P26" s="22"/>
     </row>
-    <row r="27" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="27" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A27" s="40"/>
       <c r="B27" s="41"/>
       <c r="C27" s="48"/>
@@ -7366,7 +7400,7 @@
       <c r="O27" s="22"/>
       <c r="P27" s="22"/>
     </row>
-    <row r="28" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="28" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A28" s="40"/>
       <c r="B28" s="41"/>
       <c r="C28" s="48"/>
@@ -7390,7 +7424,7 @@
       <c r="O28" s="22"/>
       <c r="P28" s="22"/>
     </row>
-    <row r="29" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="29" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A29" s="40"/>
       <c r="B29" s="41"/>
       <c r="C29" s="48"/>
@@ -7414,7 +7448,7 @@
       <c r="O29" s="22"/>
       <c r="P29" s="22"/>
     </row>
-    <row r="30" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="30" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A30" s="40"/>
       <c r="B30" s="41"/>
       <c r="C30" s="48"/>
@@ -7432,7 +7466,7 @@
       <c r="O30" s="22"/>
       <c r="P30" s="22"/>
     </row>
-    <row r="31" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="31" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A31" s="40"/>
       <c r="B31" s="41"/>
       <c r="C31" s="48"/>
@@ -7450,7 +7484,7 @@
       <c r="O31" s="22"/>
       <c r="P31" s="22"/>
     </row>
-    <row r="32" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="32" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A32" s="47"/>
       <c r="B32" s="41"/>
       <c r="C32" s="48"/>
@@ -7477,7 +7511,7 @@
       <c r="O32" s="22"/>
       <c r="P32" s="22"/>
     </row>
-    <row r="33" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="33" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A33" s="47"/>
       <c r="B33" s="41"/>
       <c r="C33" s="48"/>
@@ -7504,7 +7538,7 @@
       <c r="O33" s="22"/>
       <c r="P33" s="22"/>
     </row>
-    <row r="34" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="34" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A34" s="47"/>
       <c r="B34" s="41"/>
       <c r="C34" s="48"/>
@@ -7531,7 +7565,7 @@
       <c r="O34" s="22"/>
       <c r="P34" s="22"/>
     </row>
-    <row r="35" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="35" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A35" s="47"/>
       <c r="B35" s="41"/>
       <c r="C35" s="48"/>
@@ -7558,7 +7592,7 @@
       <c r="O35" s="22"/>
       <c r="P35" s="22"/>
     </row>
-    <row r="36" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="36" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A36" s="47"/>
       <c r="B36" s="41"/>
       <c r="C36" s="48"/>
@@ -7585,7 +7619,7 @@
       <c r="O36" s="22"/>
       <c r="P36" s="22"/>
     </row>
-    <row r="37" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="37" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A37" s="47"/>
       <c r="B37" s="41"/>
       <c r="C37" s="48"/>
@@ -7612,7 +7646,7 @@
       <c r="O37" s="22"/>
       <c r="P37" s="22"/>
     </row>
-    <row r="38" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="38" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A38" s="47"/>
       <c r="B38" s="41"/>
       <c r="C38" s="48"/>
@@ -7639,7 +7673,7 @@
       <c r="O38" s="22"/>
       <c r="P38" s="22"/>
     </row>
-    <row r="39" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="39" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A39" s="47"/>
       <c r="B39" s="41"/>
       <c r="C39" s="48"/>
@@ -7666,7 +7700,7 @@
       <c r="O39" s="22"/>
       <c r="P39" s="22"/>
     </row>
-    <row r="40" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="40" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A40" s="47"/>
       <c r="B40" s="41"/>
       <c r="C40" s="48"/>
@@ -7693,7 +7727,7 @@
       <c r="O40" s="22"/>
       <c r="P40" s="22"/>
     </row>
-    <row r="41" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="41" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A41" s="47"/>
       <c r="B41" s="41"/>
       <c r="C41" s="48"/>
@@ -7720,7 +7754,7 @@
       <c r="O41" s="22"/>
       <c r="P41" s="22"/>
     </row>
-    <row r="42" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="42" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A42" s="47"/>
       <c r="B42" s="41"/>
       <c r="C42" s="48"/>
@@ -7747,7 +7781,7 @@
       <c r="O42" s="22"/>
       <c r="P42" s="22"/>
     </row>
-    <row r="43" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="43" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A43" s="47"/>
       <c r="B43" s="41"/>
       <c r="C43" s="48"/>
@@ -7774,7 +7808,7 @@
       <c r="O43" s="22"/>
       <c r="P43" s="22"/>
     </row>
-    <row r="44" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="44" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A44" s="47"/>
       <c r="B44" s="41"/>
       <c r="C44" s="48"/>
@@ -7801,7 +7835,7 @@
       <c r="O44" s="22"/>
       <c r="P44" s="22"/>
     </row>
-    <row r="45" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="45" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A45" s="47"/>
       <c r="B45" s="41"/>
       <c r="C45" s="48"/>
@@ -7828,7 +7862,7 @@
       <c r="O45" s="22"/>
       <c r="P45" s="22"/>
     </row>
-    <row r="46" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="46" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A46" s="47"/>
       <c r="B46" s="41"/>
       <c r="C46" s="48"/>
@@ -7855,7 +7889,7 @@
       <c r="O46" s="22"/>
       <c r="P46" s="22"/>
     </row>
-    <row r="47" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="47" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A47" s="47"/>
       <c r="B47" s="41"/>
       <c r="C47" s="48"/>
@@ -7882,7 +7916,7 @@
       <c r="O47" s="22"/>
       <c r="P47" s="22"/>
     </row>
-    <row r="48" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="48" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A48" s="47"/>
       <c r="B48" s="41"/>
       <c r="C48" s="48"/>
@@ -7909,7 +7943,7 @@
       <c r="O48" s="22"/>
       <c r="P48" s="22"/>
     </row>
-    <row r="49" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="49" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A49" s="47"/>
       <c r="B49" s="41"/>
       <c r="C49" s="48"/>
@@ -7936,7 +7970,7 @@
       <c r="O49" s="22"/>
       <c r="P49" s="22"/>
     </row>
-    <row r="50" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="50" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A50" s="47"/>
       <c r="B50" s="41"/>
       <c r="C50" s="48"/>
@@ -7963,7 +7997,7 @@
       <c r="O50" s="22"/>
       <c r="P50" s="22"/>
     </row>
-    <row r="51" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="51" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A51" s="47"/>
       <c r="B51" s="41"/>
       <c r="C51" s="48"/>
@@ -7990,7 +8024,7 @@
       <c r="O51" s="22"/>
       <c r="P51" s="22"/>
     </row>
-    <row r="52" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="52" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A52" s="47"/>
       <c r="B52" s="41"/>
       <c r="C52" s="48"/>
@@ -8017,7 +8051,7 @@
       <c r="O52" s="22"/>
       <c r="P52" s="22"/>
     </row>
-    <row r="53" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="53" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A53" s="47"/>
       <c r="B53" s="41"/>
       <c r="C53" s="48"/>
@@ -8044,7 +8078,7 @@
       <c r="O53" s="22"/>
       <c r="P53" s="22"/>
     </row>
-    <row r="54" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="54" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A54" s="47"/>
       <c r="B54" s="41"/>
       <c r="C54" s="48"/>
@@ -8071,7 +8105,7 @@
       <c r="O54" s="22"/>
       <c r="P54" s="22"/>
     </row>
-    <row r="55" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="55" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A55" s="47"/>
       <c r="B55" s="41"/>
       <c r="C55" s="48"/>
@@ -8098,7 +8132,7 @@
       <c r="O55" s="22"/>
       <c r="P55" s="22"/>
     </row>
-    <row r="56" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="56" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A56" s="86"/>
       <c r="B56" s="86"/>
       <c r="C56" s="86"/>
@@ -8118,7 +8152,7 @@
       <c r="Q56" s="22"/>
       <c r="R56" s="22"/>
     </row>
-    <row r="57" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="57" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A57" s="86"/>
       <c r="B57" s="86"/>
       <c r="C57" s="86"/>
@@ -8138,7 +8172,7 @@
       <c r="Q57" s="22"/>
       <c r="R57" s="22"/>
     </row>
-    <row r="58" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="58" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A58" s="86"/>
       <c r="B58" s="86"/>
       <c r="C58" s="86"/>
@@ -8158,7 +8192,7 @@
       <c r="Q58" s="22"/>
       <c r="R58" s="22"/>
     </row>
-    <row r="59" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="59" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A59" s="86"/>
       <c r="B59" s="86"/>
       <c r="C59" s="86"/>
@@ -8178,7 +8212,7 @@
       <c r="Q59" s="22"/>
       <c r="R59" s="22"/>
     </row>
-    <row r="60" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="60" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A60" s="86"/>
       <c r="B60" s="86"/>
       <c r="C60" s="86"/>
@@ -8198,7 +8232,7 @@
       <c r="Q60" s="22"/>
       <c r="R60" s="22"/>
     </row>
-    <row r="61" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="61" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A61" s="86"/>
       <c r="B61" s="86"/>
       <c r="C61" s="86"/>
@@ -8218,7 +8252,7 @@
       <c r="Q61" s="22"/>
       <c r="R61" s="22"/>
     </row>
-    <row r="62" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="62" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A62" s="86"/>
       <c r="B62" s="86"/>
       <c r="C62" s="86"/>
@@ -8238,7 +8272,7 @@
       <c r="Q62" s="22"/>
       <c r="R62" s="22"/>
     </row>
-    <row r="63" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="63" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A63" s="86"/>
       <c r="B63" s="86"/>
       <c r="C63" s="86"/>
@@ -8258,7 +8292,7 @@
       <c r="Q63" s="22"/>
       <c r="R63" s="22"/>
     </row>
-    <row r="64" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="64" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A64" s="86"/>
       <c r="B64" s="86"/>
       <c r="C64" s="86"/>
@@ -8278,7 +8312,7 @@
       <c r="Q64" s="22"/>
       <c r="R64" s="22"/>
     </row>
-    <row r="65" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="65" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A65" s="86"/>
       <c r="B65" s="86"/>
       <c r="C65" s="86"/>
@@ -8298,7 +8332,7 @@
       <c r="Q65" s="22"/>
       <c r="R65" s="22"/>
     </row>
-    <row r="66" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="66" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A66" s="86"/>
       <c r="B66" s="86"/>
       <c r="C66" s="86"/>
@@ -8318,7 +8352,7 @@
       <c r="Q66" s="22"/>
       <c r="R66" s="22"/>
     </row>
-    <row r="67" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="67" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A67" s="86"/>
       <c r="B67" s="86"/>
       <c r="C67" s="86"/>
@@ -8338,7 +8372,7 @@
       <c r="Q67" s="22"/>
       <c r="R67" s="22"/>
     </row>
-    <row r="68" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="68" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A68" s="86"/>
       <c r="B68" s="86"/>
       <c r="C68" s="86"/>
@@ -8358,7 +8392,7 @@
       <c r="Q68" s="22"/>
       <c r="R68" s="22"/>
     </row>
-    <row r="69" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="69" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A69" s="86"/>
       <c r="B69" s="86"/>
       <c r="C69" s="86"/>
@@ -8378,7 +8412,7 @@
       <c r="Q69" s="22"/>
       <c r="R69" s="22"/>
     </row>
-    <row r="70" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="70" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A70" s="86"/>
       <c r="B70" s="86"/>
       <c r="C70" s="86"/>
@@ -8398,7 +8432,7 @@
       <c r="Q70" s="22"/>
       <c r="R70" s="22"/>
     </row>
-    <row r="71" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="71" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A71" s="86"/>
       <c r="B71" s="86"/>
       <c r="C71" s="86"/>
@@ -8418,7 +8452,7 @@
       <c r="Q71" s="22"/>
       <c r="R71" s="22"/>
     </row>
-    <row r="72" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="72" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A72" s="86"/>
       <c r="B72" s="86"/>
       <c r="C72" s="86"/>
@@ -8438,7 +8472,7 @@
       <c r="Q72" s="22"/>
       <c r="R72" s="22"/>
     </row>
-    <row r="73" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="73" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A73" s="86"/>
       <c r="B73" s="86"/>
       <c r="C73" s="86"/>
@@ -8458,7 +8492,7 @@
       <c r="Q73" s="22"/>
       <c r="R73" s="22"/>
     </row>
-    <row r="74" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="74" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A74" s="86"/>
       <c r="B74" s="86"/>
       <c r="C74" s="86"/>
@@ -8478,7 +8512,7 @@
       <c r="Q74" s="22"/>
       <c r="R74" s="22"/>
     </row>
-    <row r="75" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="75" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A75" s="86"/>
       <c r="B75" s="86"/>
       <c r="C75" s="86"/>
@@ -8498,7 +8532,7 @@
       <c r="Q75" s="22"/>
       <c r="R75" s="22"/>
     </row>
-    <row r="76" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="76" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A76" s="86"/>
       <c r="B76" s="86"/>
       <c r="C76" s="86"/>
@@ -8518,7 +8552,7 @@
       <c r="Q76" s="22"/>
       <c r="R76" s="22"/>
     </row>
-    <row r="77" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="77" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A77" s="86"/>
       <c r="B77" s="86"/>
       <c r="C77" s="86"/>
@@ -8538,7 +8572,7 @@
       <c r="Q77" s="22"/>
       <c r="R77" s="22"/>
     </row>
-    <row r="78" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="78" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A78" s="86"/>
       <c r="B78" s="86"/>
       <c r="C78" s="86"/>
@@ -8558,7 +8592,7 @@
       <c r="Q78" s="22"/>
       <c r="R78" s="22"/>
     </row>
-    <row r="79" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="79" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A79" s="86"/>
       <c r="B79" s="86"/>
       <c r="C79" s="86"/>
@@ -8578,7 +8612,7 @@
       <c r="Q79" s="22"/>
       <c r="R79" s="22"/>
     </row>
-    <row r="80" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="80" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A80" s="86"/>
       <c r="B80" s="86"/>
       <c r="C80" s="86"/>
@@ -8598,7 +8632,7 @@
       <c r="Q80" s="22"/>
       <c r="R80" s="22"/>
     </row>
-    <row r="81" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="81" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A81" s="86"/>
       <c r="B81" s="86"/>
       <c r="C81" s="86"/>
@@ -8618,7 +8652,7 @@
       <c r="Q81" s="22"/>
       <c r="R81" s="22"/>
     </row>
-    <row r="82" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="82" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A82" s="86"/>
       <c r="B82" s="86"/>
       <c r="C82" s="86"/>
@@ -8638,7 +8672,7 @@
       <c r="Q82" s="22"/>
       <c r="R82" s="22"/>
     </row>
-    <row r="83" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="83" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A83" s="86"/>
       <c r="B83" s="86"/>
       <c r="C83" s="86"/>
@@ -8658,7 +8692,7 @@
       <c r="Q83" s="22"/>
       <c r="R83" s="22"/>
     </row>
-    <row r="84" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="84" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A84" s="86"/>
       <c r="B84" s="86"/>
       <c r="C84" s="86"/>
@@ -8678,7 +8712,7 @@
       <c r="Q84" s="22"/>
       <c r="R84" s="22"/>
     </row>
-    <row r="85" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="85" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A85" s="86"/>
       <c r="B85" s="86"/>
       <c r="C85" s="86"/>
@@ -8698,7 +8732,7 @@
       <c r="Q85" s="22"/>
       <c r="R85" s="22"/>
     </row>
-    <row r="86" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="86" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A86" s="86"/>
       <c r="B86" s="86"/>
       <c r="C86" s="86"/>
@@ -8718,7 +8752,7 @@
       <c r="Q86" s="22"/>
       <c r="R86" s="22"/>
     </row>
-    <row r="87" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="87" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A87" s="86"/>
       <c r="B87" s="86"/>
       <c r="C87" s="86"/>
@@ -8738,7 +8772,7 @@
       <c r="Q87" s="22"/>
       <c r="R87" s="22"/>
     </row>
-    <row r="88" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="88" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A88" s="86"/>
       <c r="B88" s="86"/>
       <c r="C88" s="86"/>
@@ -8758,7 +8792,7 @@
       <c r="Q88" s="22"/>
       <c r="R88" s="22"/>
     </row>
-    <row r="89" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="89" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A89" s="86"/>
       <c r="B89" s="86"/>
       <c r="C89" s="86"/>
@@ -8778,7 +8812,7 @@
       <c r="Q89" s="22"/>
       <c r="R89" s="22"/>
     </row>
-    <row r="90" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="90" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A90" s="86"/>
       <c r="B90" s="86"/>
       <c r="C90" s="86"/>
@@ -8798,7 +8832,7 @@
       <c r="Q90" s="22"/>
       <c r="R90" s="22"/>
     </row>
-    <row r="91" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="91" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A91" s="86"/>
       <c r="B91" s="86"/>
       <c r="C91" s="86"/>
@@ -8818,7 +8852,7 @@
       <c r="Q91" s="22"/>
       <c r="R91" s="22"/>
     </row>
-    <row r="92" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="92" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A92" s="86"/>
       <c r="B92" s="86"/>
       <c r="C92" s="86"/>
@@ -8838,7 +8872,7 @@
       <c r="Q92" s="22"/>
       <c r="R92" s="22"/>
     </row>
-    <row r="93" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="93" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A93" s="86"/>
       <c r="B93" s="86"/>
       <c r="C93" s="86"/>
@@ -8858,7 +8892,7 @@
       <c r="Q93" s="22"/>
       <c r="R93" s="22"/>
     </row>
-    <row r="94" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="94" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A94" s="86"/>
       <c r="B94" s="86"/>
       <c r="C94" s="86"/>
@@ -8878,7 +8912,7 @@
       <c r="Q94" s="22"/>
       <c r="R94" s="22"/>
     </row>
-    <row r="95" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="95" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A95" s="86"/>
       <c r="B95" s="86"/>
       <c r="C95" s="86"/>
@@ -8898,7 +8932,7 @@
       <c r="Q95" s="22"/>
       <c r="R95" s="22"/>
     </row>
-    <row r="96" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="96" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A96" s="86"/>
       <c r="B96" s="86"/>
       <c r="C96" s="86"/>
@@ -8918,7 +8952,7 @@
       <c r="Q96" s="22"/>
       <c r="R96" s="22"/>
     </row>
-    <row r="97" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="97" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A97" s="86"/>
       <c r="B97" s="86"/>
       <c r="C97" s="86"/>
@@ -8938,7 +8972,7 @@
       <c r="Q97" s="22"/>
       <c r="R97" s="22"/>
     </row>
-    <row r="98" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="98" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A98" s="86"/>
       <c r="B98" s="86"/>
       <c r="C98" s="86"/>
@@ -8958,7 +8992,7 @@
       <c r="Q98" s="22"/>
       <c r="R98" s="22"/>
     </row>
-    <row r="99" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="99" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A99" s="86"/>
       <c r="B99" s="86"/>
       <c r="C99" s="86"/>
@@ -8978,7 +9012,7 @@
       <c r="Q99" s="22"/>
       <c r="R99" s="22"/>
     </row>
-    <row r="100" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="100" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A100" s="86"/>
       <c r="B100" s="86"/>
       <c r="C100" s="86"/>
@@ -8998,7 +9032,7 @@
       <c r="Q100" s="22"/>
       <c r="R100" s="22"/>
     </row>
-    <row r="101" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="101" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A101" s="86"/>
       <c r="B101" s="86"/>
       <c r="C101" s="86"/>
@@ -9018,7 +9052,7 @@
       <c r="Q101" s="22"/>
       <c r="R101" s="22"/>
     </row>
-    <row r="102" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="102" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A102" s="86"/>
       <c r="B102" s="86"/>
       <c r="C102" s="86"/>
@@ -9038,7 +9072,7 @@
       <c r="Q102" s="22"/>
       <c r="R102" s="22"/>
     </row>
-    <row r="103" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="103" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A103" s="86"/>
       <c r="B103" s="86"/>
       <c r="C103" s="86"/>
@@ -9058,7 +9092,7 @@
       <c r="Q103" s="22"/>
       <c r="R103" s="22"/>
     </row>
-    <row r="104" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="104" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A104" s="86"/>
       <c r="B104" s="86"/>
       <c r="C104" s="86"/>
@@ -9078,7 +9112,7 @@
       <c r="Q104" s="22"/>
       <c r="R104" s="22"/>
     </row>
-    <row r="105" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="105" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A105" s="86"/>
       <c r="B105" s="86"/>
       <c r="C105" s="86"/>
@@ -9098,7 +9132,7 @@
       <c r="Q105" s="22"/>
       <c r="R105" s="22"/>
     </row>
-    <row r="106" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="106" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A106" s="86"/>
       <c r="B106" s="86"/>
       <c r="C106" s="86"/>
@@ -9118,7 +9152,7 @@
       <c r="Q106" s="22"/>
       <c r="R106" s="22"/>
     </row>
-    <row r="107" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="107" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A107" s="86"/>
       <c r="B107" s="86"/>
       <c r="C107" s="86"/>
@@ -9138,7 +9172,7 @@
       <c r="Q107" s="22"/>
       <c r="R107" s="22"/>
     </row>
-    <row r="108" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="108" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A108" s="86"/>
       <c r="B108" s="86"/>
       <c r="C108" s="86"/>
@@ -9158,7 +9192,7 @@
       <c r="Q108" s="22"/>
       <c r="R108" s="22"/>
     </row>
-    <row r="109" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="109" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A109" s="86"/>
       <c r="B109" s="86"/>
       <c r="C109" s="86"/>
@@ -9178,7 +9212,7 @@
       <c r="Q109" s="22"/>
       <c r="R109" s="22"/>
     </row>
-    <row r="110" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="110" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A110" s="86"/>
       <c r="B110" s="86"/>
       <c r="C110" s="86"/>
@@ -9198,25 +9232,25 @@
       <c r="Q110" s="22"/>
       <c r="R110" s="22"/>
     </row>
-    <row r="111" spans="1:18" ht="31.1" customHeight="1">
+    <row r="111" spans="1:18" ht="31.15" customHeight="1">
       <c r="I111" s="88"/>
     </row>
-    <row r="112" spans="1:18" ht="31.1" customHeight="1">
+    <row r="112" spans="1:18" ht="31.15" customHeight="1">
       <c r="I112" s="88"/>
     </row>
-    <row r="113" spans="9:9" ht="31.1" customHeight="1">
+    <row r="113" spans="9:9" ht="31.15" customHeight="1">
       <c r="I113" s="88"/>
     </row>
-    <row r="114" spans="9:9" ht="31.1" customHeight="1">
+    <row r="114" spans="9:9" ht="31.15" customHeight="1">
       <c r="I114" s="88"/>
     </row>
-    <row r="115" spans="9:9" ht="31.1" customHeight="1">
+    <row r="115" spans="9:9" ht="31.15" customHeight="1">
       <c r="I115" s="88"/>
     </row>
-    <row r="116" spans="9:9" ht="31.1" customHeight="1">
+    <row r="116" spans="9:9" ht="31.15" customHeight="1">
       <c r="I116" s="88"/>
     </row>
-    <row r="117" spans="9:9" ht="31.1" customHeight="1">
+    <row r="117" spans="9:9" ht="31.15" customHeight="1">
       <c r="I117" s="88"/>
     </row>
   </sheetData>
@@ -9261,7 +9295,7 @@
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="20.25" style="116" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.25" style="116" customWidth="1"/>
@@ -9297,7 +9331,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="49.1">
+    <row r="2" spans="1:9" ht="33">
       <c r="A2" s="139" t="s">
         <v>357</v>
       </c>
@@ -9320,7 +9354,7 @@
       </c>
       <c r="I2" s="28"/>
     </row>
-    <row r="3" spans="1:9" ht="32.75">
+    <row r="3" spans="1:9" ht="33">
       <c r="A3" s="138" t="s">
         <v>354</v>
       </c>
@@ -9343,7 +9377,7 @@
       </c>
       <c r="I3" s="28"/>
     </row>
-    <row r="4" spans="1:9" ht="32.75">
+    <row r="4" spans="1:9" ht="33">
       <c r="A4" s="139" t="s">
         <v>377</v>
       </c>
@@ -9366,7 +9400,7 @@
       </c>
       <c r="I4" s="28"/>
     </row>
-    <row r="5" spans="1:9" ht="49.1">
+    <row r="5" spans="1:9" ht="49.5">
       <c r="A5" s="139" t="s">
         <v>355</v>
       </c>
@@ -9388,7 +9422,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="49.1">
+    <row r="6" spans="1:9" ht="49.5">
       <c r="A6" s="139" t="s">
         <v>356</v>
       </c>
@@ -9410,7 +9444,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="49.1">
+    <row r="7" spans="1:9" ht="49.5">
       <c r="A7" s="139" t="s">
         <v>358</v>
       </c>
@@ -9454,7 +9488,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="49.1">
+    <row r="9" spans="1:9" ht="49.5">
       <c r="A9" s="139" t="s">
         <v>360</v>
       </c>
@@ -9622,7 +9656,7 @@
       <selection pane="bottomRight" activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.5" style="27" customWidth="1"/>
     <col min="2" max="2" width="16.375" style="27" customWidth="1"/>
@@ -9659,7 +9693,7 @@
       <c r="H1" s="22"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="2" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A2" s="30" t="s">
         <v>247</v>
       </c>
@@ -9681,7 +9715,7 @@
       <c r="K2" s="28"/>
       <c r="L2" s="28"/>
     </row>
-    <row r="3" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="3" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A3" s="30" t="s">
         <v>247</v>
       </c>
@@ -9703,7 +9737,7 @@
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
     </row>
-    <row r="4" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="4" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A4" s="30" t="s">
         <v>247</v>
       </c>
@@ -9725,7 +9759,7 @@
       <c r="K4" s="28"/>
       <c r="L4" s="28"/>
     </row>
-    <row r="5" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="5" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A5" s="30" t="s">
         <v>247</v>
       </c>
@@ -9747,7 +9781,7 @@
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
     </row>
-    <row r="6" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="6" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A6" s="30" t="s">
         <v>247</v>
       </c>
@@ -9769,7 +9803,7 @@
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
     </row>
-    <row r="7" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="7" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A7" s="30" t="s">
         <v>247</v>
       </c>
@@ -9791,7 +9825,7 @@
       <c r="K7" s="28"/>
       <c r="L7" s="28"/>
     </row>
-    <row r="8" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="8" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A8" s="30" t="s">
         <v>247</v>
       </c>
@@ -9813,7 +9847,7 @@
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="9" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A9" s="30" t="s">
         <v>247</v>
       </c>
@@ -9835,7 +9869,7 @@
       <c r="K9" s="28"/>
       <c r="L9" s="28"/>
     </row>
-    <row r="10" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="10" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A10" s="30" t="s">
         <v>247</v>
       </c>
@@ -9857,7 +9891,7 @@
       <c r="K10" s="28"/>
       <c r="L10" s="28"/>
     </row>
-    <row r="11" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="11" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A11" s="30" t="s">
         <v>247</v>
       </c>
@@ -9876,7 +9910,7 @@
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
     </row>
-    <row r="12" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="12" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A12" s="30" t="s">
         <v>247</v>
       </c>
@@ -9898,7 +9932,7 @@
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
     </row>
-    <row r="13" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="13" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A13" s="30" t="s">
         <v>247</v>
       </c>
@@ -9920,7 +9954,7 @@
       <c r="K13" s="28"/>
       <c r="L13" s="28"/>
     </row>
-    <row r="14" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="14" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A14" s="30" t="s">
         <v>247</v>
       </c>
@@ -9942,7 +9976,7 @@
       <c r="K14" s="28"/>
       <c r="L14" s="28"/>
     </row>
-    <row r="15" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="15" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A15" s="30" t="s">
         <v>247</v>
       </c>
@@ -9964,7 +9998,7 @@
       <c r="K15" s="28"/>
       <c r="L15" s="28"/>
     </row>
-    <row r="16" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="16" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A16" s="30" t="s">
         <v>247</v>
       </c>
@@ -9986,7 +10020,7 @@
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
     </row>
-    <row r="17" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="17" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A17" s="30" t="s">
         <v>247</v>
       </c>
@@ -10008,7 +10042,7 @@
       <c r="K17" s="28"/>
       <c r="L17" s="28"/>
     </row>
-    <row r="18" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="18" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A18" s="30" t="s">
         <v>247</v>
       </c>
@@ -10030,7 +10064,7 @@
       <c r="K18" s="28"/>
       <c r="L18" s="28"/>
     </row>
-    <row r="19" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="19" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A19" s="30" t="s">
         <v>247</v>
       </c>
@@ -10049,7 +10083,7 @@
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
     </row>
-    <row r="20" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="20" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A20" s="30" t="s">
         <v>247</v>
       </c>
@@ -10068,7 +10102,7 @@
       <c r="H20" s="22"/>
       <c r="I20" s="22"/>
     </row>
-    <row r="21" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="21" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A21" s="30" t="s">
         <v>247</v>
       </c>
@@ -10090,7 +10124,7 @@
       <c r="K21" s="28"/>
       <c r="L21" s="28"/>
     </row>
-    <row r="22" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="22" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A22" s="30" t="s">
         <v>247</v>
       </c>
@@ -10112,7 +10146,7 @@
       <c r="K22" s="28"/>
       <c r="L22" s="28"/>
     </row>
-    <row r="23" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="23" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A23" s="30" t="s">
         <v>247</v>
       </c>
@@ -10134,7 +10168,7 @@
       <c r="K23" s="28"/>
       <c r="L23" s="28"/>
     </row>
-    <row r="24" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="24" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A24" s="30" t="s">
         <v>247</v>
       </c>
@@ -10222,7 +10256,7 @@
       <c r="K27" s="28"/>
       <c r="L27" s="28"/>
     </row>
-    <row r="28" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="28" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A28" s="30" t="s">
         <v>247</v>
       </c>
@@ -10288,7 +10322,7 @@
       <c r="K30" s="28"/>
       <c r="L30" s="28"/>
     </row>
-    <row r="31" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="31" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A31" s="30" t="s">
         <v>247</v>
       </c>
@@ -10376,7 +10410,7 @@
       <c r="K34" s="28"/>
       <c r="L34" s="28"/>
     </row>
-    <row r="35" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="35" spans="1:12" s="23" customFormat="1">
       <c r="A35" s="30" t="s">
         <v>247</v>
       </c>
@@ -10398,7 +10432,7 @@
       <c r="K35" s="28"/>
       <c r="L35" s="28"/>
     </row>
-    <row r="36" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="36" spans="1:12" s="23" customFormat="1">
       <c r="A36" s="30" t="s">
         <v>247</v>
       </c>
@@ -10420,7 +10454,7 @@
       <c r="K36" s="28"/>
       <c r="L36" s="28"/>
     </row>
-    <row r="37" spans="1:12" ht="32.75">
+    <row r="37" spans="1:12">
       <c r="A37" s="30" t="s">
         <v>247</v>
       </c>
@@ -10435,7 +10469,7 @@
       </c>
       <c r="E37" s="26"/>
     </row>
-    <row r="38" spans="1:12" ht="32.75">
+    <row r="38" spans="1:12">
       <c r="A38" s="30" t="s">
         <v>247</v>
       </c>
@@ -10450,7 +10484,7 @@
       </c>
       <c r="E38" s="26"/>
     </row>
-    <row r="39" spans="1:12" ht="32.75">
+    <row r="39" spans="1:12">
       <c r="A39" s="30" t="s">
         <v>247</v>
       </c>
@@ -10465,7 +10499,7 @@
       </c>
       <c r="E39" s="26"/>
     </row>
-    <row r="40" spans="1:12" ht="32.75">
+    <row r="40" spans="1:12">
       <c r="A40" s="30" t="s">
         <v>247</v>
       </c>
@@ -10481,7 +10515,7 @@
       <c r="E40" s="26"/>
       <c r="H40" s="28"/>
     </row>
-    <row r="41" spans="1:12" ht="32.75">
+    <row r="41" spans="1:12">
       <c r="A41" s="30" t="s">
         <v>247</v>
       </c>
@@ -10496,7 +10530,7 @@
       </c>
       <c r="E41" s="26"/>
     </row>
-    <row r="42" spans="1:12" ht="32.75">
+    <row r="42" spans="1:12" ht="33">
       <c r="A42" s="30" t="s">
         <v>247</v>
       </c>
@@ -10511,7 +10545,7 @@
       </c>
       <c r="E42" s="26"/>
     </row>
-    <row r="43" spans="1:12" ht="32.75">
+    <row r="43" spans="1:12">
       <c r="A43" s="30" t="s">
         <v>247</v>
       </c>
@@ -10526,7 +10560,7 @@
       </c>
       <c r="E43" s="26"/>
     </row>
-    <row r="44" spans="1:12" ht="32.75">
+    <row r="44" spans="1:12">
       <c r="A44" s="30" t="s">
         <v>247</v>
       </c>
@@ -10541,7 +10575,7 @@
       </c>
       <c r="E44" s="26"/>
     </row>
-    <row r="45" spans="1:12" ht="32.75">
+    <row r="45" spans="1:12">
       <c r="A45" s="30" t="s">
         <v>247</v>
       </c>
@@ -10556,7 +10590,7 @@
       </c>
       <c r="E45" s="26"/>
     </row>
-    <row r="46" spans="1:12" ht="32.75">
+    <row r="46" spans="1:12">
       <c r="A46" s="30" t="s">
         <v>247</v>
       </c>
@@ -10638,7 +10672,7 @@
       </c>
       <c r="E50" s="26"/>
     </row>
-    <row r="51" spans="1:12" ht="32.75">
+    <row r="51" spans="1:12">
       <c r="A51" s="30" t="s">
         <v>247</v>
       </c>
@@ -10683,7 +10717,7 @@
       </c>
       <c r="E53" s="26"/>
     </row>
-    <row r="54" spans="1:12" ht="32.75">
+    <row r="54" spans="1:12" ht="33">
       <c r="A54" s="30" t="s">
         <v>247</v>
       </c>
@@ -10784,7 +10818,7 @@
       <c r="H59" s="22"/>
       <c r="I59" s="22"/>
     </row>
-    <row r="60" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="60" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A60" s="30" t="s">
         <v>247</v>
       </c>
@@ -10847,7 +10881,7 @@
       <c r="H62" s="22"/>
       <c r="I62" s="22"/>
     </row>
-    <row r="63" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="63" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A63" s="30" t="s">
         <v>247</v>
       </c>
@@ -10869,7 +10903,7 @@
       <c r="K63" s="28"/>
       <c r="L63" s="28"/>
     </row>
-    <row r="64" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="64" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A64" s="30" t="s">
         <v>247</v>
       </c>
@@ -11004,7 +11038,7 @@
       </c>
       <c r="E71" s="26"/>
     </row>
-    <row r="72" spans="1:12" ht="32.75">
+    <row r="72" spans="1:12">
       <c r="A72" s="30" t="s">
         <v>247</v>
       </c>
@@ -11019,7 +11053,7 @@
       </c>
       <c r="E72" s="26"/>
     </row>
-    <row r="73" spans="1:12" ht="32.75">
+    <row r="73" spans="1:12">
       <c r="A73" s="30" t="s">
         <v>247</v>
       </c>
@@ -11041,7 +11075,7 @@
       <c r="K73" s="23"/>
       <c r="L73" s="23"/>
     </row>
-    <row r="74" spans="1:12" ht="32.75">
+    <row r="74" spans="1:12">
       <c r="A74" s="30" t="s">
         <v>247</v>
       </c>
@@ -11160,7 +11194,7 @@
       <c r="H79" s="22"/>
       <c r="I79" s="22"/>
     </row>
-    <row r="80" spans="1:12" ht="32.75" hidden="1">
+    <row r="80" spans="1:12" ht="33" hidden="1">
       <c r="A80" s="30" t="s">
         <v>248</v>
       </c>
@@ -11182,7 +11216,7 @@
       <c r="K80" s="23"/>
       <c r="L80" s="23"/>
     </row>
-    <row r="81" spans="1:12" ht="49.1" hidden="1">
+    <row r="81" spans="1:12" ht="33" hidden="1">
       <c r="A81" s="30" t="s">
         <v>248</v>
       </c>
@@ -11204,7 +11238,7 @@
       <c r="K81" s="23"/>
       <c r="L81" s="23"/>
     </row>
-    <row r="82" spans="1:12" ht="98.2" hidden="1">
+    <row r="82" spans="1:12" ht="99" hidden="1">
       <c r="A82" s="30" t="s">
         <v>248</v>
       </c>
@@ -11226,7 +11260,7 @@
       <c r="K82" s="23"/>
       <c r="L82" s="23"/>
     </row>
-    <row r="83" spans="1:12" ht="32.75" hidden="1">
+    <row r="83" spans="1:12" ht="33" hidden="1">
       <c r="A83" s="30" t="s">
         <v>248</v>
       </c>
@@ -11242,7 +11276,7 @@
       <c r="E83" s="26"/>
       <c r="H83" s="28"/>
     </row>
-    <row r="84" spans="1:12" ht="32.75" hidden="1">
+    <row r="84" spans="1:12" hidden="1">
       <c r="A84" s="30" t="s">
         <v>248</v>
       </c>
@@ -11258,7 +11292,7 @@
       <c r="E84" s="26"/>
       <c r="H84" s="28"/>
     </row>
-    <row r="85" spans="1:12" ht="32.75" hidden="1">
+    <row r="85" spans="1:12" ht="33" hidden="1">
       <c r="A85" s="30" t="s">
         <v>248</v>
       </c>
@@ -11274,7 +11308,7 @@
       <c r="E85" s="26"/>
       <c r="H85" s="28"/>
     </row>
-    <row r="86" spans="1:12" ht="32.75" hidden="1">
+    <row r="86" spans="1:12" ht="33" hidden="1">
       <c r="A86" s="30" t="s">
         <v>248</v>
       </c>
@@ -11296,7 +11330,7 @@
       <c r="K86" s="23"/>
       <c r="L86" s="23"/>
     </row>
-    <row r="87" spans="1:12" ht="32.75" hidden="1">
+    <row r="87" spans="1:12" ht="33" hidden="1">
       <c r="A87" s="30" t="s">
         <v>248</v>
       </c>
@@ -11318,7 +11352,7 @@
       <c r="K87" s="23"/>
       <c r="L87" s="23"/>
     </row>
-    <row r="88" spans="1:12" ht="32.75" hidden="1">
+    <row r="88" spans="1:12" ht="33" hidden="1">
       <c r="A88" s="30" t="s">
         <v>248</v>
       </c>
@@ -11340,7 +11374,7 @@
       <c r="K88" s="23"/>
       <c r="L88" s="23"/>
     </row>
-    <row r="89" spans="1:12" ht="32.75" hidden="1">
+    <row r="89" spans="1:12" ht="33" hidden="1">
       <c r="A89" s="30" t="s">
         <v>248</v>
       </c>
@@ -11362,7 +11396,7 @@
       <c r="K89" s="23"/>
       <c r="L89" s="23"/>
     </row>
-    <row r="90" spans="1:12" ht="32.75" hidden="1">
+    <row r="90" spans="1:12" ht="33" hidden="1">
       <c r="A90" s="30" t="s">
         <v>248</v>
       </c>
@@ -11384,7 +11418,7 @@
       <c r="K90" s="23"/>
       <c r="L90" s="23"/>
     </row>
-    <row r="91" spans="1:12" ht="32.75" hidden="1">
+    <row r="91" spans="1:12" ht="33" hidden="1">
       <c r="A91" s="30" t="s">
         <v>248</v>
       </c>
@@ -11406,7 +11440,7 @@
       <c r="K91" s="23"/>
       <c r="L91" s="23"/>
     </row>
-    <row r="92" spans="1:12" ht="32.75" hidden="1">
+    <row r="92" spans="1:12" ht="33" hidden="1">
       <c r="A92" s="30" t="s">
         <v>248</v>
       </c>
@@ -11428,7 +11462,7 @@
       <c r="K92" s="23"/>
       <c r="L92" s="23"/>
     </row>
-    <row r="93" spans="1:12" ht="65.45" hidden="1">
+    <row r="93" spans="1:12" ht="66" hidden="1">
       <c r="A93" s="30" t="s">
         <v>248</v>
       </c>
@@ -11450,7 +11484,7 @@
       <c r="K93" s="23"/>
       <c r="L93" s="23"/>
     </row>
-    <row r="94" spans="1:12" ht="81.849999999999994" hidden="1">
+    <row r="94" spans="1:12" ht="66" hidden="1">
       <c r="A94" s="30" t="s">
         <v>248</v>
       </c>
@@ -11472,7 +11506,7 @@
       <c r="K94" s="23"/>
       <c r="L94" s="23"/>
     </row>
-    <row r="95" spans="1:12" ht="114.55" hidden="1">
+    <row r="95" spans="1:12" ht="82.5" hidden="1">
       <c r="A95" s="30" t="s">
         <v>248</v>
       </c>
@@ -11494,7 +11528,7 @@
       <c r="K95" s="23"/>
       <c r="L95" s="23"/>
     </row>
-    <row r="96" spans="1:12" ht="81.849999999999994" hidden="1">
+    <row r="96" spans="1:12" ht="66" hidden="1">
       <c r="A96" s="30" t="s">
         <v>248</v>
       </c>
@@ -11516,7 +11550,7 @@
       <c r="K96" s="23"/>
       <c r="L96" s="23"/>
     </row>
-    <row r="97" spans="1:12" ht="81.849999999999994" hidden="1">
+    <row r="97" spans="1:12" ht="66" hidden="1">
       <c r="A97" s="30" t="s">
         <v>248</v>
       </c>
@@ -11538,7 +11572,7 @@
       <c r="K97" s="23"/>
       <c r="L97" s="23"/>
     </row>
-    <row r="98" spans="1:12" ht="65.45" hidden="1">
+    <row r="98" spans="1:12" ht="49.5" hidden="1">
       <c r="A98" s="30" t="s">
         <v>248</v>
       </c>
@@ -11560,7 +11594,7 @@
       <c r="K98" s="23"/>
       <c r="L98" s="23"/>
     </row>
-    <row r="99" spans="1:12" ht="65.45" hidden="1">
+    <row r="99" spans="1:12" ht="66" hidden="1">
       <c r="A99" s="30" t="s">
         <v>248</v>
       </c>
@@ -11582,7 +11616,7 @@
       <c r="K99" s="23"/>
       <c r="L99" s="23"/>
     </row>
-    <row r="100" spans="1:12" ht="32.75" hidden="1">
+    <row r="100" spans="1:12" hidden="1">
       <c r="A100" s="30" t="s">
         <v>248</v>
       </c>
@@ -11604,7 +11638,7 @@
       <c r="K100" s="23"/>
       <c r="L100" s="23"/>
     </row>
-    <row r="101" spans="1:12" ht="65.45" hidden="1">
+    <row r="101" spans="1:12" ht="49.5" hidden="1">
       <c r="A101" s="30" t="s">
         <v>248</v>
       </c>
@@ -11626,7 +11660,7 @@
       <c r="K101" s="23"/>
       <c r="L101" s="23"/>
     </row>
-    <row r="102" spans="1:12" ht="65.45" hidden="1">
+    <row r="102" spans="1:12" ht="49.5" hidden="1">
       <c r="A102" s="30" t="s">
         <v>248</v>
       </c>
@@ -11648,7 +11682,7 @@
       <c r="K102" s="23"/>
       <c r="L102" s="23"/>
     </row>
-    <row r="103" spans="1:12" ht="49.1" hidden="1">
+    <row r="103" spans="1:12" ht="33" hidden="1">
       <c r="A103" s="30" t="s">
         <v>248</v>
       </c>
@@ -11670,7 +11704,7 @@
       <c r="K103" s="23"/>
       <c r="L103" s="23"/>
     </row>
-    <row r="104" spans="1:12" ht="32.75" hidden="1">
+    <row r="104" spans="1:12" ht="33" hidden="1">
       <c r="A104" s="30" t="s">
         <v>248</v>
       </c>
@@ -11708,7 +11742,7 @@
       <c r="E105" s="26"/>
       <c r="H105" s="28"/>
     </row>
-    <row r="106" spans="1:12" ht="49.1" hidden="1">
+    <row r="106" spans="1:12" ht="49.5" hidden="1">
       <c r="A106" s="30" t="s">
         <v>248</v>
       </c>
@@ -11818,7 +11852,7 @@
       <c r="K110" s="23"/>
       <c r="L110" s="23"/>
     </row>
-    <row r="111" spans="1:12" ht="163.65" hidden="1">
+    <row r="111" spans="1:12" ht="165" hidden="1">
       <c r="A111" s="30" t="s">
         <v>249</v>
       </c>
@@ -11833,7 +11867,7 @@
       </c>
       <c r="E111" s="26"/>
     </row>
-    <row r="112" spans="1:12" ht="32.75" hidden="1">
+    <row r="112" spans="1:12" ht="33" hidden="1">
       <c r="A112" s="30" t="s">
         <v>249</v>
       </c>
@@ -11848,7 +11882,7 @@
       </c>
       <c r="E112" s="26"/>
     </row>
-    <row r="113" spans="1:5" ht="32.75" hidden="1">
+    <row r="113" spans="1:5" ht="33" hidden="1">
       <c r="A113" s="30" t="s">
         <v>249</v>
       </c>
@@ -11863,7 +11897,7 @@
       </c>
       <c r="E113" s="26"/>
     </row>
-    <row r="114" spans="1:5" ht="32.75" hidden="1">
+    <row r="114" spans="1:5" ht="33" hidden="1">
       <c r="A114" s="30" t="s">
         <v>249</v>
       </c>
@@ -11878,7 +11912,7 @@
       </c>
       <c r="E114" s="26"/>
     </row>
-    <row r="115" spans="1:5" ht="32.75" hidden="1">
+    <row r="115" spans="1:5" ht="33" hidden="1">
       <c r="A115" s="30" t="s">
         <v>249</v>
       </c>
@@ -11893,7 +11927,7 @@
       </c>
       <c r="E115" s="26"/>
     </row>
-    <row r="116" spans="1:5" ht="32.75" hidden="1">
+    <row r="116" spans="1:5" ht="33" hidden="1">
       <c r="A116" s="30" t="s">
         <v>249</v>
       </c>
@@ -11908,7 +11942,7 @@
       </c>
       <c r="E116" s="26"/>
     </row>
-    <row r="117" spans="1:5" ht="32.75" hidden="1">
+    <row r="117" spans="1:5" ht="33" hidden="1">
       <c r="A117" s="30" t="s">
         <v>249</v>
       </c>
@@ -11923,7 +11957,7 @@
       </c>
       <c r="E117" s="26"/>
     </row>
-    <row r="118" spans="1:5" ht="32.75" hidden="1">
+    <row r="118" spans="1:5" ht="33" hidden="1">
       <c r="A118" s="30" t="s">
         <v>249</v>
       </c>
@@ -11938,7 +11972,7 @@
       </c>
       <c r="E118" s="26"/>
     </row>
-    <row r="119" spans="1:5" ht="65.45" hidden="1">
+    <row r="119" spans="1:5" ht="66" hidden="1">
       <c r="A119" s="30" t="s">
         <v>249</v>
       </c>
@@ -11953,7 +11987,7 @@
       </c>
       <c r="E119" s="26"/>
     </row>
-    <row r="120" spans="1:5" ht="81.849999999999994" hidden="1">
+    <row r="120" spans="1:5" ht="66" hidden="1">
       <c r="A120" s="30" t="s">
         <v>249</v>
       </c>
@@ -11968,7 +12002,7 @@
       </c>
       <c r="E120" s="26"/>
     </row>
-    <row r="121" spans="1:5" ht="114.55" hidden="1">
+    <row r="121" spans="1:5" ht="82.5" hidden="1">
       <c r="A121" s="30" t="s">
         <v>249</v>
       </c>
@@ -11983,7 +12017,7 @@
       </c>
       <c r="E121" s="26"/>
     </row>
-    <row r="122" spans="1:5" ht="81.849999999999994" hidden="1">
+    <row r="122" spans="1:5" ht="66" hidden="1">
       <c r="A122" s="30" t="s">
         <v>249</v>
       </c>
@@ -11998,7 +12032,7 @@
       </c>
       <c r="E122" s="26"/>
     </row>
-    <row r="123" spans="1:5" ht="65.45" hidden="1">
+    <row r="123" spans="1:5" ht="49.5" hidden="1">
       <c r="A123" s="30" t="s">
         <v>249</v>
       </c>
@@ -12013,7 +12047,7 @@
       </c>
       <c r="E123" s="26"/>
     </row>
-    <row r="124" spans="1:5" ht="65.45" hidden="1">
+    <row r="124" spans="1:5" ht="49.5" hidden="1">
       <c r="A124" s="30" t="s">
         <v>249</v>
       </c>
@@ -12028,7 +12062,7 @@
       </c>
       <c r="E124" s="26"/>
     </row>
-    <row r="125" spans="1:5" ht="32.75" hidden="1">
+    <row r="125" spans="1:5" ht="33" hidden="1">
       <c r="A125" s="30" t="s">
         <v>249</v>
       </c>
@@ -12043,7 +12077,7 @@
       </c>
       <c r="E125" s="26"/>
     </row>
-    <row r="126" spans="1:5" ht="32.75" hidden="1">
+    <row r="126" spans="1:5" ht="33" hidden="1">
       <c r="A126" s="30" t="s">
         <v>249</v>
       </c>
@@ -12058,7 +12092,7 @@
       </c>
       <c r="E126" s="26"/>
     </row>
-    <row r="127" spans="1:5" ht="32.75" hidden="1">
+    <row r="127" spans="1:5" ht="33" hidden="1">
       <c r="A127" s="30" t="s">
         <v>249</v>
       </c>
@@ -12073,7 +12107,7 @@
       </c>
       <c r="E127" s="26"/>
     </row>
-    <row r="128" spans="1:5" ht="98.2" hidden="1">
+    <row r="128" spans="1:5" ht="99" hidden="1">
       <c r="A128" s="30" t="s">
         <v>249</v>
       </c>
@@ -12088,7 +12122,7 @@
       </c>
       <c r="E128" s="26"/>
     </row>
-    <row r="129" spans="1:5" ht="65.45" hidden="1">
+    <row r="129" spans="1:5" ht="66" hidden="1">
       <c r="A129" s="30" t="s">
         <v>249</v>
       </c>
@@ -12103,7 +12137,7 @@
       </c>
       <c r="E129" s="26"/>
     </row>
-    <row r="130" spans="1:5" ht="49.1" hidden="1">
+    <row r="130" spans="1:5" ht="49.5" hidden="1">
       <c r="A130" s="30" t="s">
         <v>249</v>
       </c>
@@ -12118,7 +12152,7 @@
       </c>
       <c r="E130" s="26"/>
     </row>
-    <row r="131" spans="1:5" ht="32.75" hidden="1">
+    <row r="131" spans="1:5" ht="33" hidden="1">
       <c r="A131" s="30" t="s">
         <v>249</v>
       </c>
@@ -12133,7 +12167,7 @@
       </c>
       <c r="E131" s="26"/>
     </row>
-    <row r="132" spans="1:5" ht="49.1" hidden="1">
+    <row r="132" spans="1:5" ht="49.5" hidden="1">
       <c r="A132" s="30" t="s">
         <v>249</v>
       </c>
@@ -12148,7 +12182,7 @@
       </c>
       <c r="E132" s="26"/>
     </row>
-    <row r="133" spans="1:5" ht="81.849999999999994" hidden="1">
+    <row r="133" spans="1:5" ht="82.5" hidden="1">
       <c r="A133" s="30" t="s">
         <v>249</v>
       </c>
@@ -12163,7 +12197,7 @@
       </c>
       <c r="E133" s="26"/>
     </row>
-    <row r="134" spans="1:5" ht="32.75" hidden="1">
+    <row r="134" spans="1:5" ht="33" hidden="1">
       <c r="A134" s="30" t="s">
         <v>249</v>
       </c>
@@ -12178,7 +12212,7 @@
       </c>
       <c r="E134" s="26"/>
     </row>
-    <row r="135" spans="1:5" ht="32.75" hidden="1">
+    <row r="135" spans="1:5" ht="33" hidden="1">
       <c r="A135" s="30" t="s">
         <v>249</v>
       </c>
@@ -12193,7 +12227,7 @@
       </c>
       <c r="E135" s="26"/>
     </row>
-    <row r="136" spans="1:5" ht="49.1" hidden="1">
+    <row r="136" spans="1:5" ht="33" hidden="1">
       <c r="A136" s="30" t="s">
         <v>249</v>
       </c>
@@ -12208,7 +12242,7 @@
       </c>
       <c r="E136" s="26"/>
     </row>
-    <row r="137" spans="1:5" ht="49.1" hidden="1">
+    <row r="137" spans="1:5" ht="49.5" hidden="1">
       <c r="A137" s="30" t="s">
         <v>249</v>
       </c>
@@ -12223,7 +12257,7 @@
       </c>
       <c r="E137" s="26"/>
     </row>
-    <row r="138" spans="1:5" ht="49.1" hidden="1">
+    <row r="138" spans="1:5" ht="49.5" hidden="1">
       <c r="A138" s="30" t="s">
         <v>249</v>
       </c>
@@ -12238,7 +12272,7 @@
       </c>
       <c r="E138" s="26"/>
     </row>
-    <row r="139" spans="1:5" ht="65.45" hidden="1">
+    <row r="139" spans="1:5" ht="66" hidden="1">
       <c r="A139" s="30" t="s">
         <v>249</v>
       </c>
@@ -12253,7 +12287,7 @@
       </c>
       <c r="E139" s="26"/>
     </row>
-    <row r="140" spans="1:5" ht="65.45" hidden="1">
+    <row r="140" spans="1:5" ht="66" hidden="1">
       <c r="A140" s="30" t="s">
         <v>249</v>
       </c>
@@ -12268,7 +12302,7 @@
       </c>
       <c r="E140" s="26"/>
     </row>
-    <row r="141" spans="1:5" ht="114.55" hidden="1">
+    <row r="141" spans="1:5" ht="99" hidden="1">
       <c r="A141" s="30" t="s">
         <v>249</v>
       </c>
@@ -12283,7 +12317,7 @@
       </c>
       <c r="E141" s="26"/>
     </row>
-    <row r="142" spans="1:5" ht="49.1" hidden="1">
+    <row r="142" spans="1:5" ht="33" hidden="1">
       <c r="A142" s="30" t="s">
         <v>249</v>
       </c>
@@ -12298,7 +12332,7 @@
       </c>
       <c r="E142" s="26"/>
     </row>
-    <row r="143" spans="1:5" ht="49.1" hidden="1">
+    <row r="143" spans="1:5" ht="33" hidden="1">
       <c r="A143" s="30" t="s">
         <v>249</v>
       </c>
@@ -12313,7 +12347,7 @@
       </c>
       <c r="E143" s="26"/>
     </row>
-    <row r="144" spans="1:5" ht="32.75" hidden="1">
+    <row r="144" spans="1:5" ht="33" hidden="1">
       <c r="A144" s="30" t="s">
         <v>249</v>
       </c>
@@ -12328,7 +12362,7 @@
       </c>
       <c r="E144" s="26"/>
     </row>
-    <row r="145" spans="1:5" ht="49.1" hidden="1">
+    <row r="145" spans="1:5" ht="49.5" hidden="1">
       <c r="A145" s="30" t="s">
         <v>249</v>
       </c>
@@ -12343,7 +12377,7 @@
       </c>
       <c r="E145" s="26"/>
     </row>
-    <row r="146" spans="1:5" ht="49.1" hidden="1">
+    <row r="146" spans="1:5" ht="49.5" hidden="1">
       <c r="A146" s="30" t="s">
         <v>249</v>
       </c>
@@ -12358,7 +12392,7 @@
       </c>
       <c r="E146" s="26"/>
     </row>
-    <row r="147" spans="1:5" ht="32.75" hidden="1">
+    <row r="147" spans="1:5" ht="33" hidden="1">
       <c r="A147" s="30" t="s">
         <v>249</v>
       </c>
@@ -12373,7 +12407,7 @@
       </c>
       <c r="E147" s="26"/>
     </row>
-    <row r="148" spans="1:5" ht="32.75" hidden="1">
+    <row r="148" spans="1:5" ht="33" hidden="1">
       <c r="A148" s="30" t="s">
         <v>249</v>
       </c>
@@ -12388,7 +12422,7 @@
       </c>
       <c r="E148" s="26"/>
     </row>
-    <row r="149" spans="1:5" ht="32.75" hidden="1">
+    <row r="149" spans="1:5" ht="33" hidden="1">
       <c r="A149" s="30" t="s">
         <v>249</v>
       </c>
@@ -12403,7 +12437,7 @@
       </c>
       <c r="E149" s="26"/>
     </row>
-    <row r="150" spans="1:5" ht="32.75" hidden="1">
+    <row r="150" spans="1:5" ht="33" hidden="1">
       <c r="A150" s="30" t="s">
         <v>249</v>
       </c>
@@ -12418,7 +12452,7 @@
       </c>
       <c r="E150" s="26"/>
     </row>
-    <row r="151" spans="1:5" ht="49.1" hidden="1">
+    <row r="151" spans="1:5" ht="49.5" hidden="1">
       <c r="A151" s="30" t="s">
         <v>249</v>
       </c>
@@ -12433,7 +12467,7 @@
       </c>
       <c r="E151" s="26"/>
     </row>
-    <row r="152" spans="1:5" ht="65.45" hidden="1">
+    <row r="152" spans="1:5" ht="66" hidden="1">
       <c r="A152" s="30" t="s">
         <v>249</v>
       </c>
@@ -12448,7 +12482,7 @@
       </c>
       <c r="E152" s="26"/>
     </row>
-    <row r="153" spans="1:5" ht="65.45" hidden="1">
+    <row r="153" spans="1:5" ht="66" hidden="1">
       <c r="A153" s="30" t="s">
         <v>249</v>
       </c>
@@ -12463,7 +12497,7 @@
       </c>
       <c r="E153" s="26"/>
     </row>
-    <row r="154" spans="1:5" ht="49.1" hidden="1">
+    <row r="154" spans="1:5" ht="49.5" hidden="1">
       <c r="A154" s="30" t="s">
         <v>249</v>
       </c>
@@ -12478,7 +12512,7 @@
       </c>
       <c r="E154" s="26"/>
     </row>
-    <row r="155" spans="1:5" ht="65.45" hidden="1">
+    <row r="155" spans="1:5" ht="66" hidden="1">
       <c r="A155" s="30" t="s">
         <v>249</v>
       </c>
@@ -12493,7 +12527,7 @@
       </c>
       <c r="E155" s="26"/>
     </row>
-    <row r="156" spans="1:5" ht="65.45" hidden="1">
+    <row r="156" spans="1:5" ht="66" hidden="1">
       <c r="A156" s="30" t="s">
         <v>249</v>
       </c>
@@ -12508,7 +12542,7 @@
       </c>
       <c r="E156" s="26"/>
     </row>
-    <row r="157" spans="1:5" ht="65.45" hidden="1">
+    <row r="157" spans="1:5" ht="66" hidden="1">
       <c r="A157" s="30" t="s">
         <v>249</v>
       </c>
@@ -12523,7 +12557,7 @@
       </c>
       <c r="E157" s="26"/>
     </row>
-    <row r="158" spans="1:5" ht="65.45" hidden="1">
+    <row r="158" spans="1:5" ht="66" hidden="1">
       <c r="A158" s="30" t="s">
         <v>249</v>
       </c>
@@ -12538,7 +12572,7 @@
       </c>
       <c r="E158" s="26"/>
     </row>
-    <row r="159" spans="1:5" ht="130.94999999999999" hidden="1">
+    <row r="159" spans="1:5" ht="132" hidden="1">
       <c r="A159" s="30" t="s">
         <v>249</v>
       </c>
@@ -12553,7 +12587,7 @@
       </c>
       <c r="E159" s="26"/>
     </row>
-    <row r="160" spans="1:5" ht="65.45" hidden="1">
+    <row r="160" spans="1:5" ht="66" hidden="1">
       <c r="A160" s="30" t="s">
         <v>249</v>
       </c>
@@ -12568,7 +12602,7 @@
       </c>
       <c r="E160" s="26"/>
     </row>
-    <row r="161" spans="1:5" ht="32.75" hidden="1">
+    <row r="161" spans="1:5" hidden="1">
       <c r="A161" s="30" t="s">
         <v>250</v>
       </c>
@@ -12583,7 +12617,7 @@
       </c>
       <c r="E161" s="26"/>
     </row>
-    <row r="162" spans="1:5" ht="32.75" hidden="1">
+    <row r="162" spans="1:5" hidden="1">
       <c r="A162" s="30" t="s">
         <v>250</v>
       </c>
@@ -12598,7 +12632,7 @@
       </c>
       <c r="E162" s="26"/>
     </row>
-    <row r="163" spans="1:5" ht="32.75" hidden="1">
+    <row r="163" spans="1:5" hidden="1">
       <c r="A163" s="30" t="s">
         <v>250</v>
       </c>
@@ -12613,7 +12647,7 @@
       </c>
       <c r="E163" s="26"/>
     </row>
-    <row r="164" spans="1:5" ht="32.75" hidden="1">
+    <row r="164" spans="1:5" hidden="1">
       <c r="A164" s="30" t="s">
         <v>250</v>
       </c>
@@ -12628,7 +12662,7 @@
       </c>
       <c r="E164" s="26"/>
     </row>
-    <row r="165" spans="1:5" ht="32.75" hidden="1">
+    <row r="165" spans="1:5" hidden="1">
       <c r="A165" s="30" t="s">
         <v>250</v>
       </c>
@@ -12643,7 +12677,7 @@
       </c>
       <c r="E165" s="26"/>
     </row>
-    <row r="166" spans="1:5" ht="32.75" hidden="1">
+    <row r="166" spans="1:5" hidden="1">
       <c r="A166" s="30" t="s">
         <v>250</v>
       </c>
@@ -12658,7 +12692,7 @@
       </c>
       <c r="E166" s="26"/>
     </row>
-    <row r="167" spans="1:5" ht="32.75" hidden="1">
+    <row r="167" spans="1:5" hidden="1">
       <c r="A167" s="30" t="s">
         <v>250</v>
       </c>
@@ -12673,7 +12707,7 @@
       </c>
       <c r="E167" s="26"/>
     </row>
-    <row r="168" spans="1:5" ht="32.75" hidden="1">
+    <row r="168" spans="1:5" hidden="1">
       <c r="A168" s="30" t="s">
         <v>250</v>
       </c>
@@ -12688,7 +12722,7 @@
       </c>
       <c r="E168" s="26"/>
     </row>
-    <row r="169" spans="1:5" ht="32.75" hidden="1">
+    <row r="169" spans="1:5" hidden="1">
       <c r="A169" s="30" t="s">
         <v>250</v>
       </c>
@@ -12703,7 +12737,7 @@
       </c>
       <c r="E169" s="26"/>
     </row>
-    <row r="170" spans="1:5" ht="32.75" hidden="1">
+    <row r="170" spans="1:5" hidden="1">
       <c r="A170" s="30" t="s">
         <v>250</v>
       </c>
@@ -12718,7 +12752,7 @@
       </c>
       <c r="E170" s="26"/>
     </row>
-    <row r="171" spans="1:5" ht="32.75" hidden="1">
+    <row r="171" spans="1:5" hidden="1">
       <c r="A171" s="30" t="s">
         <v>250</v>
       </c>
@@ -12733,7 +12767,7 @@
       </c>
       <c r="E171" s="26"/>
     </row>
-    <row r="172" spans="1:5" ht="32.75" hidden="1">
+    <row r="172" spans="1:5" hidden="1">
       <c r="A172" s="30" t="s">
         <v>250</v>
       </c>
@@ -12748,7 +12782,7 @@
       </c>
       <c r="E172" s="26"/>
     </row>
-    <row r="173" spans="1:5" ht="32.75" hidden="1">
+    <row r="173" spans="1:5" hidden="1">
       <c r="A173" s="30" t="s">
         <v>250</v>
       </c>
@@ -12820,7 +12854,7 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="23.875" style="136" customWidth="1"/>
@@ -12844,7 +12878,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="123" t="s">
         <v>344</v>
       </c>
@@ -12861,7 +12895,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="127"/>
       <c r="B3" s="124" t="s">
         <v>311</v>
@@ -12893,7 +12927,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="128"/>
       <c r="B5" s="129" t="s">
         <v>338</v>
@@ -12908,7 +12942,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="128"/>
       <c r="B6" s="130"/>
       <c r="C6" s="125">
@@ -12921,7 +12955,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="128"/>
       <c r="B7" s="130"/>
       <c r="C7" s="125">
@@ -12934,7 +12968,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="128"/>
       <c r="B8" s="131"/>
       <c r="C8" s="125">
@@ -12947,7 +12981,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="128"/>
       <c r="B9" s="129" t="s">
         <v>339</v>
@@ -12962,7 +12996,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="128"/>
       <c r="B10" s="130"/>
       <c r="C10" s="125">
@@ -12975,7 +13009,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="128"/>
       <c r="B11" s="130"/>
       <c r="C11" s="125">
@@ -12988,7 +13022,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="128"/>
       <c r="B12" s="130"/>
       <c r="C12" s="125">
@@ -13001,7 +13035,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="128"/>
       <c r="B13" s="131"/>
       <c r="C13" s="125">
@@ -13014,7 +13048,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="128"/>
       <c r="B14" s="129" t="s">
         <v>349</v>
@@ -13029,7 +13063,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="128"/>
       <c r="B15" s="130"/>
       <c r="C15" s="125">
@@ -13042,7 +13076,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="128"/>
       <c r="B16" s="130"/>
       <c r="C16" s="125">
@@ -13055,7 +13089,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="128"/>
       <c r="B17" s="133"/>
       <c r="C17" s="125">
@@ -13068,7 +13102,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="128"/>
       <c r="B18" s="134"/>
       <c r="C18" s="125">
@@ -13081,7 +13115,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="128"/>
       <c r="B19" s="129" t="s">
         <v>340</v>
@@ -13096,7 +13130,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="128"/>
       <c r="B20" s="130"/>
       <c r="C20" s="125">
@@ -13109,7 +13143,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="128"/>
       <c r="B21" s="131"/>
       <c r="C21" s="125">
@@ -13122,7 +13156,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="128"/>
       <c r="B22" s="129" t="s">
         <v>323</v>
@@ -13137,7 +13171,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="128"/>
       <c r="B23" s="134"/>
       <c r="C23" s="125">
@@ -13150,7 +13184,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="128"/>
       <c r="B24" s="124" t="s">
         <v>324</v>
@@ -13165,7 +13199,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="135"/>
       <c r="B25" s="124" t="s">
         <v>326</v>
@@ -13180,7 +13214,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="123" t="s">
         <v>327</v>
       </c>
@@ -13197,7 +13231,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="135"/>
       <c r="B27" s="132" t="s">
         <v>329</v>
